--- a/demo/temp/xlsx/body-plan.xlsx
+++ b/demo/temp/xlsx/body-plan.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="16120"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>是否完成</t>
+  </si>
+  <si>
+    <t>完成</t>
   </si>
   <si>
     <t>四</t>
@@ -81,10 +84,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -134,9 +137,83 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,28 +225,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -180,6 +235,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -187,29 +250,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,29 +264,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -253,23 +271,8 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -290,108 +293,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -399,78 +468,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,28 +536,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thick">
         <color indexed="8"/>
       </left>
@@ -610,6 +585,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color indexed="8"/>
       </left>
@@ -618,6 +604,17 @@
       </right>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -841,7 +838,7 @@
     <border>
       <left/>
       <right style="thick">
-        <color indexed="8"/>
+        <color auto="1"/>
       </right>
       <top style="thick">
         <color auto="1"/>
@@ -852,7 +849,16 @@
     <border>
       <left/>
       <right style="thick">
-        <color indexed="8"/>
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thick">
@@ -861,9 +867,35 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thick">
-        <color auto="1"/>
+        <color indexed="8"/>
       </right>
       <top style="thick">
         <color auto="1"/>
@@ -874,16 +906,7 @@
     <border>
       <left/>
       <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
+        <color indexed="8"/>
       </right>
       <top/>
       <bottom style="thick">
@@ -892,28 +915,47 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color auto="1"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -939,36 +981,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -992,21 +1004,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1020,152 +1017,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="42" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="45" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="40" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1187,45 +1184,45 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="41" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1235,54 +1232,39 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="3" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1292,30 +1274,12 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1331,111 +1295,84 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1702,21 +1639,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:W34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6:V7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="17.6"/>
+  <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
   <cols>
-    <col min="13" max="13" width="23.7142857142857" customWidth="1"/>
+    <col min="13" max="13" width="23.7166666666667" customWidth="1"/>
     <col min="23" max="23" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.35" spans="1:23">
+    <row r="1" ht="15" spans="1:23">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1731,19 +1668,19 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12"/>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="59"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="44"/>
     </row>
     <row r="2" spans="2:23">
       <c r="B2" s="1"/>
@@ -1755,19 +1692,19 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="60"/>
-    </row>
-    <row r="3" spans="2:23">
+      <c r="M2" s="11"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="45"/>
+    </row>
+    <row r="3" ht="15" spans="2:23">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -1777,17 +1714,17 @@
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="16"/>
-      <c r="U3" s="16"/>
-      <c r="V3" s="16"/>
-      <c r="W3" s="61"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="46"/>
     </row>
     <row r="4" spans="2:23">
       <c r="B4" s="2" t="s">
@@ -1800,22 +1737,22 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="9"/>
-      <c r="M4" s="17" t="s">
+      <c r="J4" s="15"/>
+      <c r="M4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="18" t="s">
+      <c r="N4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-      <c r="T4" s="19"/>
-      <c r="U4" s="19"/>
-      <c r="V4" s="62"/>
-      <c r="W4" s="63" t="s">
+      <c r="O4" s="18"/>
+      <c r="P4" s="18"/>
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18"/>
+      <c r="T4" s="18"/>
+      <c r="U4" s="18"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="47" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1828,7 +1765,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="10"/>
+      <c r="J5" s="19"/>
       <c r="M5" s="20"/>
       <c r="N5" s="21"/>
       <c r="O5" s="22"/>
@@ -1838,10 +1775,10 @@
       <c r="S5" s="22"/>
       <c r="T5" s="22"/>
       <c r="U5" s="22"/>
-      <c r="V5" s="64"/>
-      <c r="W5" s="65"/>
-    </row>
-    <row r="6" ht="18.35" spans="2:23">
+      <c r="V5" s="22"/>
+      <c r="W5" s="48"/>
+    </row>
+    <row r="6" spans="2:23">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
@@ -1854,16 +1791,20 @@
       <c r="M6" s="23">
         <v>44155</v>
       </c>
-      <c r="N6" s="24"/>
+      <c r="N6" s="24" t="s">
+        <v>1</v>
+      </c>
       <c r="O6" s="25"/>
       <c r="P6" s="25"/>
       <c r="Q6" s="25"/>
       <c r="R6" s="25"/>
       <c r="S6" s="25"/>
-      <c r="T6" s="57"/>
+      <c r="T6" s="49"/>
       <c r="U6" s="25"/>
-      <c r="V6" s="66"/>
-      <c r="W6" s="67"/>
+      <c r="V6" s="25"/>
+      <c r="W6" s="50" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="2:23">
       <c r="B7" s="6"/>
@@ -1877,15 +1818,15 @@
       <c r="J7" s="6"/>
       <c r="M7" s="20"/>
       <c r="N7" s="26"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="27"/>
-      <c r="T7" s="58"/>
-      <c r="U7" s="27"/>
-      <c r="V7" s="68"/>
-      <c r="W7" s="65"/>
+      <c r="O7" s="26"/>
+      <c r="P7" s="26"/>
+      <c r="Q7" s="26"/>
+      <c r="R7" s="26"/>
+      <c r="S7" s="26"/>
+      <c r="T7" s="51"/>
+      <c r="U7" s="26"/>
+      <c r="V7" s="26"/>
+      <c r="W7" s="48"/>
     </row>
     <row r="8" spans="2:23">
       <c r="B8" s="6"/>
@@ -1897,19 +1838,21 @@
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
-      <c r="M8" s="28"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="50"/>
-      <c r="U8" s="46"/>
-      <c r="V8" s="69"/>
-      <c r="W8" s="70"/>
-    </row>
-    <row r="9" ht="19.1" spans="2:23">
+      <c r="M8" s="27">
+        <v>44156</v>
+      </c>
+      <c r="N8" s="28"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="29"/>
+      <c r="S8" s="29"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="18"/>
+      <c r="V8" s="18"/>
+      <c r="W8" s="52"/>
+    </row>
+    <row r="9" spans="2:23">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
@@ -1919,19 +1862,19 @@
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
-      <c r="M9" s="31"/>
-      <c r="N9" s="32"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="33"/>
-      <c r="S9" s="33"/>
-      <c r="T9" s="33"/>
-      <c r="U9" s="33"/>
-      <c r="V9" s="71"/>
-      <c r="W9" s="65"/>
-    </row>
-    <row r="10" ht="19.1" spans="2:23">
+      <c r="M9" s="30"/>
+      <c r="N9" s="18"/>
+      <c r="O9" s="18"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="18"/>
+      <c r="U9" s="18"/>
+      <c r="V9" s="18"/>
+      <c r="W9" s="48"/>
+    </row>
+    <row r="10" ht="15.75" spans="2:23">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1941,10 +1884,10 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="M10" s="34" t="s">
-        <v>7</v>
+      <c r="M10" s="31" t="s">
+        <v>8</v>
       </c>
-      <c r="N10" s="35"/>
+      <c r="N10" s="25"/>
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
       <c r="Q10" s="25"/>
@@ -1952,10 +1895,10 @@
       <c r="S10" s="25"/>
       <c r="T10" s="25"/>
       <c r="U10" s="25"/>
-      <c r="V10" s="66"/>
-      <c r="W10" s="67"/>
-    </row>
-    <row r="11" ht="19.1" spans="2:23">
+      <c r="V10" s="25"/>
+      <c r="W10" s="50"/>
+    </row>
+    <row r="11" ht="15.75" spans="2:23">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1965,19 +1908,19 @@
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
-      <c r="M11" s="36"/>
-      <c r="N11" s="37"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="39"/>
-      <c r="Q11" s="33"/>
-      <c r="R11" s="33"/>
-      <c r="S11" s="33"/>
-      <c r="T11" s="33"/>
-      <c r="U11" s="33"/>
-      <c r="V11" s="71"/>
-      <c r="W11" s="65"/>
-    </row>
-    <row r="12" ht="19.1" spans="2:23">
+      <c r="M11" s="32"/>
+      <c r="N11" s="33"/>
+      <c r="O11" s="33"/>
+      <c r="P11" s="34"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="18"/>
+      <c r="U11" s="18"/>
+      <c r="V11" s="18"/>
+      <c r="W11" s="48"/>
+    </row>
+    <row r="12" ht="15.75" spans="2:23">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1987,21 +1930,21 @@
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
-      <c r="M12" s="40" t="s">
-        <v>8</v>
+      <c r="M12" s="35" t="s">
+        <v>9</v>
       </c>
-      <c r="N12" s="41"/>
-      <c r="O12" s="42"/>
-      <c r="P12" s="43"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="37"/>
       <c r="Q12" s="25"/>
       <c r="R12" s="25"/>
       <c r="S12" s="25"/>
       <c r="T12" s="25"/>
       <c r="U12" s="25"/>
-      <c r="V12" s="66"/>
-      <c r="W12" s="67"/>
-    </row>
-    <row r="13" ht="19.1" spans="2:23">
+      <c r="V12" s="25"/>
+      <c r="W12" s="50"/>
+    </row>
+    <row r="13" ht="15.75" spans="2:23">
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
@@ -2013,17 +1956,17 @@
       <c r="J13" s="6"/>
       <c r="M13" s="20"/>
       <c r="N13" s="26"/>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="68"/>
-      <c r="W13" s="65"/>
-    </row>
-    <row r="14" spans="2:23">
+      <c r="O13" s="26"/>
+      <c r="P13" s="26"/>
+      <c r="Q13" s="26"/>
+      <c r="R13" s="26"/>
+      <c r="S13" s="26"/>
+      <c r="T13" s="26"/>
+      <c r="U13" s="26"/>
+      <c r="V13" s="26"/>
+      <c r="W13" s="48"/>
+    </row>
+    <row r="14" ht="15.75" spans="2:23">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -2033,23 +1976,23 @@
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
-      <c r="M14" s="44" t="s">
-        <v>9</v>
+      <c r="M14" s="30" t="s">
+        <v>10</v>
       </c>
-      <c r="N14" s="45"/>
-      <c r="O14" s="46"/>
-      <c r="P14" s="46"/>
-      <c r="Q14" s="46"/>
-      <c r="R14" s="46"/>
-      <c r="S14" s="46"/>
-      <c r="T14" s="46"/>
-      <c r="U14" s="46"/>
-      <c r="V14" s="69"/>
-      <c r="W14" s="67"/>
-    </row>
-    <row r="15" spans="2:23">
+      <c r="N14" s="18"/>
+      <c r="O14" s="18"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="18"/>
+      <c r="V14" s="18"/>
+      <c r="W14" s="50"/>
+    </row>
+    <row r="15" ht="15.75" spans="2:23">
       <c r="B15" s="7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -2059,64 +2002,64 @@
       <c r="H15" s="8"/>
       <c r="I15" s="8"/>
       <c r="J15" s="8"/>
-      <c r="M15" s="36"/>
-      <c r="N15" s="47"/>
-      <c r="O15" s="48"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27"/>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="68"/>
-      <c r="W15" s="65"/>
-    </row>
-    <row r="16" spans="13:23">
-      <c r="M16" s="40" t="s">
-        <v>11</v>
+      <c r="M15" s="32"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="38"/>
+      <c r="P15" s="26"/>
+      <c r="Q15" s="26"/>
+      <c r="R15" s="26"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="48"/>
+    </row>
+    <row r="16" ht="15.75" spans="13:23">
+      <c r="M16" s="35" t="s">
+        <v>12</v>
       </c>
-      <c r="N16" s="49"/>
-      <c r="O16" s="50"/>
-      <c r="P16" s="46"/>
-      <c r="Q16" s="46"/>
-      <c r="R16" s="46"/>
-      <c r="S16" s="46"/>
-      <c r="T16" s="46"/>
-      <c r="U16" s="46"/>
-      <c r="V16" s="69"/>
-      <c r="W16" s="67"/>
-    </row>
-    <row r="17" ht="19.1" spans="13:23">
+      <c r="N16" s="29"/>
+      <c r="O16" s="39"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="18"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="50"/>
+    </row>
+    <row r="17" ht="15.75" spans="13:23">
       <c r="M17" s="20"/>
       <c r="N17" s="26"/>
-      <c r="O17" s="27"/>
-      <c r="P17" s="27"/>
-      <c r="Q17" s="27"/>
-      <c r="R17" s="27"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="27"/>
-      <c r="U17" s="27"/>
-      <c r="V17" s="68"/>
-      <c r="W17" s="65"/>
-    </row>
-    <row r="18" ht="19.1" spans="13:23">
-      <c r="M18" s="44" t="s">
-        <v>12</v>
+      <c r="O17" s="26"/>
+      <c r="P17" s="26"/>
+      <c r="Q17" s="26"/>
+      <c r="R17" s="26"/>
+      <c r="S17" s="26"/>
+      <c r="T17" s="26"/>
+      <c r="U17" s="26"/>
+      <c r="V17" s="26"/>
+      <c r="W17" s="48"/>
+    </row>
+    <row r="18" ht="15.75" spans="13:23">
+      <c r="M18" s="30" t="s">
+        <v>13</v>
       </c>
-      <c r="N18" s="45"/>
-      <c r="O18" s="46"/>
-      <c r="P18" s="46"/>
-      <c r="Q18" s="46"/>
-      <c r="R18" s="46"/>
-      <c r="S18" s="46"/>
-      <c r="T18" s="46"/>
-      <c r="U18" s="46"/>
-      <c r="V18" s="69"/>
-      <c r="W18" s="67"/>
-    </row>
-    <row r="19" ht="19.1" spans="13:23">
-      <c r="M19" s="51"/>
-      <c r="N19" s="47"/>
+      <c r="N18" s="18"/>
+      <c r="O18" s="18"/>
+      <c r="P18" s="18"/>
+      <c r="Q18" s="18"/>
+      <c r="R18" s="18"/>
+      <c r="S18" s="18"/>
+      <c r="T18" s="18"/>
+      <c r="U18" s="18"/>
+      <c r="V18" s="18"/>
+      <c r="W18" s="50"/>
+    </row>
+    <row r="19" ht="15.75" spans="13:23">
+      <c r="M19" s="40"/>
+      <c r="N19" s="22"/>
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
       <c r="Q19" s="22"/>
@@ -2124,42 +2067,42 @@
       <c r="S19" s="22"/>
       <c r="T19" s="22"/>
       <c r="U19" s="22"/>
-      <c r="V19" s="64"/>
-      <c r="W19" s="65"/>
-    </row>
-    <row r="20" ht="18.35" spans="13:23">
-      <c r="M20" s="44" t="s">
-        <v>13</v>
-      </c>
-      <c r="N20" s="45"/>
-      <c r="O20" s="46"/>
-      <c r="P20" s="46"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="46"/>
-      <c r="S20" s="46"/>
-      <c r="T20" s="46"/>
-      <c r="U20" s="46"/>
-      <c r="V20" s="69"/>
-      <c r="W20" s="67"/>
-    </row>
-    <row r="21" ht="18.35" spans="13:23">
-      <c r="M21" s="31"/>
-      <c r="N21" s="32"/>
-      <c r="O21" s="33"/>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
-      <c r="R21" s="33"/>
-      <c r="S21" s="33"/>
-      <c r="T21" s="33"/>
-      <c r="U21" s="33"/>
-      <c r="V21" s="71"/>
-      <c r="W21" s="65"/>
-    </row>
-    <row r="22" ht="19.1" spans="13:23">
-      <c r="M22" s="34" t="s">
+      <c r="V19" s="22"/>
+      <c r="W19" s="48"/>
+    </row>
+    <row r="20" ht="15" spans="13:23">
+      <c r="M20" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="N22" s="35"/>
+      <c r="N20" s="18"/>
+      <c r="O20" s="18"/>
+      <c r="P20" s="18"/>
+      <c r="Q20" s="18"/>
+      <c r="R20" s="18"/>
+      <c r="S20" s="18"/>
+      <c r="T20" s="18"/>
+      <c r="U20" s="18"/>
+      <c r="V20" s="18"/>
+      <c r="W20" s="50"/>
+    </row>
+    <row r="21" ht="15" spans="13:23">
+      <c r="M21" s="30"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="S21" s="18"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="18"/>
+      <c r="V21" s="18"/>
+      <c r="W21" s="48"/>
+    </row>
+    <row r="22" ht="15.75" spans="13:23">
+      <c r="M22" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="N22" s="25"/>
       <c r="O22" s="25"/>
       <c r="P22" s="25"/>
       <c r="Q22" s="25"/>
@@ -2167,12 +2110,12 @@
       <c r="S22" s="25"/>
       <c r="T22" s="25"/>
       <c r="U22" s="25"/>
-      <c r="V22" s="66"/>
-      <c r="W22" s="67"/>
-    </row>
-    <row r="23" ht="19.1" spans="13:23">
-      <c r="M23" s="51"/>
-      <c r="N23" s="47"/>
+      <c r="V22" s="25"/>
+      <c r="W22" s="50"/>
+    </row>
+    <row r="23" ht="15.75" spans="13:23">
+      <c r="M23" s="40"/>
+      <c r="N23" s="22"/>
       <c r="O23" s="22"/>
       <c r="P23" s="22"/>
       <c r="Q23" s="22"/>
@@ -2180,150 +2123,150 @@
       <c r="S23" s="22"/>
       <c r="T23" s="22"/>
       <c r="U23" s="22"/>
-      <c r="V23" s="64"/>
-      <c r="W23" s="65"/>
-    </row>
-    <row r="24" ht="18.35" spans="13:23">
-      <c r="M24" s="44" t="s">
-        <v>15</v>
+      <c r="V23" s="22"/>
+      <c r="W23" s="48"/>
+    </row>
+    <row r="24" ht="15" spans="13:23">
+      <c r="M24" s="30" t="s">
+        <v>16</v>
       </c>
-      <c r="N24" s="45"/>
-      <c r="O24" s="46"/>
-      <c r="P24" s="46"/>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="46"/>
-      <c r="S24" s="46"/>
-      <c r="T24" s="46"/>
-      <c r="U24" s="46"/>
-      <c r="V24" s="69"/>
-      <c r="W24" s="67"/>
-    </row>
-    <row r="25" ht="18.35" spans="13:23">
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="18"/>
+      <c r="W24" s="50"/>
+    </row>
+    <row r="25" ht="15" spans="13:23">
       <c r="M25" s="20"/>
       <c r="N25" s="26"/>
-      <c r="O25" s="27"/>
-      <c r="P25" s="27"/>
-      <c r="Q25" s="27"/>
-      <c r="R25" s="27"/>
-      <c r="S25" s="27"/>
-      <c r="T25" s="27"/>
-      <c r="U25" s="27"/>
-      <c r="V25" s="68"/>
-      <c r="W25" s="65"/>
-    </row>
-    <row r="26" ht="18.35" spans="13:23">
-      <c r="M26" s="44" t="s">
-        <v>16</v>
+      <c r="O25" s="26"/>
+      <c r="P25" s="26"/>
+      <c r="Q25" s="26"/>
+      <c r="R25" s="26"/>
+      <c r="S25" s="26"/>
+      <c r="T25" s="26"/>
+      <c r="U25" s="26"/>
+      <c r="V25" s="26"/>
+      <c r="W25" s="48"/>
+    </row>
+    <row r="26" ht="15" spans="13:23">
+      <c r="M26" s="30" t="s">
+        <v>17</v>
       </c>
-      <c r="N26" s="45"/>
-      <c r="O26" s="46"/>
-      <c r="P26" s="46"/>
-      <c r="Q26" s="46"/>
-      <c r="R26" s="46"/>
-      <c r="S26" s="46"/>
-      <c r="T26" s="46"/>
-      <c r="U26" s="46"/>
-      <c r="V26" s="69"/>
-      <c r="W26" s="67"/>
-    </row>
-    <row r="27" ht="18.35" spans="13:23">
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="S26" s="18"/>
+      <c r="T26" s="18"/>
+      <c r="U26" s="18"/>
+      <c r="V26" s="18"/>
+      <c r="W26" s="50"/>
+    </row>
+    <row r="27" ht="15" spans="13:23">
       <c r="M27" s="20"/>
       <c r="N27" s="26"/>
-      <c r="O27" s="27"/>
-      <c r="P27" s="27"/>
-      <c r="Q27" s="27"/>
-      <c r="R27" s="27"/>
-      <c r="S27" s="27"/>
-      <c r="T27" s="27"/>
-      <c r="U27" s="27"/>
-      <c r="V27" s="68"/>
-      <c r="W27" s="65"/>
-    </row>
-    <row r="28" ht="19.1" spans="13:23">
-      <c r="M28" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="N28" s="45"/>
-      <c r="O28" s="46"/>
-      <c r="P28" s="46"/>
-      <c r="Q28" s="46"/>
-      <c r="R28" s="46"/>
-      <c r="S28" s="46"/>
-      <c r="T28" s="46"/>
-      <c r="U28" s="46"/>
-      <c r="V28" s="69"/>
-      <c r="W28" s="67"/>
-    </row>
-    <row r="29" ht="19.1" spans="13:23">
-      <c r="M29" s="36"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="39"/>
-      <c r="P29" s="39"/>
-      <c r="Q29" s="33"/>
-      <c r="R29" s="33"/>
-      <c r="S29" s="33"/>
-      <c r="T29" s="33"/>
-      <c r="U29" s="33"/>
-      <c r="V29" s="71"/>
-      <c r="W29" s="65"/>
-    </row>
-    <row r="30" ht="19.1" spans="13:23">
-      <c r="M30" s="40" t="s">
+      <c r="O27" s="26"/>
+      <c r="P27" s="26"/>
+      <c r="Q27" s="26"/>
+      <c r="R27" s="26"/>
+      <c r="S27" s="26"/>
+      <c r="T27" s="26"/>
+      <c r="U27" s="26"/>
+      <c r="V27" s="26"/>
+      <c r="W27" s="48"/>
+    </row>
+    <row r="28" ht="15.75" spans="13:23">
+      <c r="M28" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="N30" s="53"/>
-      <c r="O30" s="43"/>
-      <c r="P30" s="43"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="50"/>
+    </row>
+    <row r="29" ht="15.75" spans="13:23">
+      <c r="M29" s="32"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="48"/>
+    </row>
+    <row r="30" ht="15.75" spans="13:23">
+      <c r="M30" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="N30" s="42"/>
+      <c r="O30" s="37"/>
+      <c r="P30" s="37"/>
       <c r="Q30" s="25"/>
       <c r="R30" s="25"/>
       <c r="S30" s="25"/>
       <c r="T30" s="25"/>
       <c r="U30" s="25"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="67"/>
-    </row>
-    <row r="31" ht="19.1" spans="13:23">
+      <c r="V30" s="25"/>
+      <c r="W30" s="50"/>
+    </row>
+    <row r="31" ht="15.75" spans="13:23">
       <c r="M31" s="20"/>
       <c r="N31" s="26"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
-      <c r="V31" s="68"/>
-      <c r="W31" s="65"/>
-    </row>
-    <row r="32" ht="18.35" spans="13:23">
-      <c r="M32" s="44" t="s">
-        <v>19</v>
+      <c r="O31" s="26"/>
+      <c r="P31" s="26"/>
+      <c r="Q31" s="26"/>
+      <c r="R31" s="26"/>
+      <c r="S31" s="26"/>
+      <c r="T31" s="26"/>
+      <c r="U31" s="26"/>
+      <c r="V31" s="26"/>
+      <c r="W31" s="48"/>
+    </row>
+    <row r="32" ht="15" spans="13:23">
+      <c r="M32" s="30" t="s">
+        <v>20</v>
       </c>
-      <c r="N32" s="45"/>
-      <c r="O32" s="46"/>
-      <c r="P32" s="46"/>
-      <c r="Q32" s="46"/>
-      <c r="R32" s="46"/>
-      <c r="S32" s="46"/>
-      <c r="T32" s="46"/>
-      <c r="U32" s="46"/>
-      <c r="V32" s="69"/>
-      <c r="W32" s="67"/>
-    </row>
-    <row r="33" ht="18.35" spans="13:23">
-      <c r="M33" s="54"/>
-      <c r="N33" s="55"/>
-      <c r="O33" s="56"/>
-      <c r="P33" s="56"/>
-      <c r="Q33" s="56"/>
-      <c r="R33" s="56"/>
-      <c r="S33" s="56"/>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="72"/>
-      <c r="W33" s="65"/>
-    </row>
-    <row r="34" ht="18.35"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="50"/>
+    </row>
+    <row r="33" ht="15" spans="13:23">
+      <c r="M33" s="43"/>
+      <c r="N33" s="29"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="48"/>
+    </row>
+    <row r="34" ht="15"/>
   </sheetData>
   <mergeCells count="49">
     <mergeCell ref="B15:J15"/>

--- a/demo/temp/xlsx/body-plan.xlsx
+++ b/demo/temp/xlsx/body-plan.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>完成</t>
-  </si>
-  <si>
-    <t>四</t>
   </si>
   <si>
     <t>五</t>
@@ -100,7 +97,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -137,7 +134,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,44 +254,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -200,77 +268,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -293,181 +290,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -911,6 +908,15 @@
       <top/>
       <bottom style="thick">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -930,6 +936,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -945,21 +975,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -967,6 +982,21 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -979,39 +1009,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1020,10 +1017,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1032,137 +1029,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="40" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="43" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="44" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="40" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="43" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="41" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="42" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="44" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1184,7 +1181,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1256,34 +1253,37 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1644,7 +1644,7 @@
   <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="W10" sqref="W10:W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14166666666667" defaultRowHeight="14.25"/>
@@ -1680,7 +1680,7 @@
       <c r="T1" s="10"/>
       <c r="U1" s="10"/>
       <c r="V1" s="10"/>
-      <c r="W1" s="44"/>
+      <c r="W1" s="45"/>
     </row>
     <row r="2" spans="2:23">
       <c r="B2" s="1"/>
@@ -1702,7 +1702,7 @@
       <c r="T2" s="12"/>
       <c r="U2" s="12"/>
       <c r="V2" s="12"/>
-      <c r="W2" s="45"/>
+      <c r="W2" s="46"/>
     </row>
     <row r="3" ht="15" spans="2:23">
       <c r="B3" s="1"/>
@@ -1724,9 +1724,9 @@
       <c r="T3" s="14"/>
       <c r="U3" s="14"/>
       <c r="V3" s="14"/>
-      <c r="W3" s="46"/>
-    </row>
-    <row r="4" spans="2:23">
+      <c r="W3" s="47"/>
+    </row>
+    <row r="4" ht="15.75" spans="2:23">
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1752,11 +1752,11 @@
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
-      <c r="W4" s="47" t="s">
+      <c r="W4" s="48" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:23">
+    <row r="5" ht="15.75" spans="2:23">
       <c r="B5" s="4"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -1776,7 +1776,7 @@
       <c r="T5" s="22"/>
       <c r="U5" s="22"/>
       <c r="V5" s="22"/>
-      <c r="W5" s="48"/>
+      <c r="W5" s="49"/>
     </row>
     <row r="6" spans="2:23">
       <c r="B6" s="6"/>
@@ -1799,10 +1799,10 @@
       <c r="Q6" s="25"/>
       <c r="R6" s="25"/>
       <c r="S6" s="25"/>
-      <c r="T6" s="49"/>
+      <c r="T6" s="50"/>
       <c r="U6" s="25"/>
       <c r="V6" s="25"/>
-      <c r="W6" s="50" t="s">
+      <c r="W6" s="51" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1823,10 +1823,10 @@
       <c r="Q7" s="26"/>
       <c r="R7" s="26"/>
       <c r="S7" s="26"/>
-      <c r="T7" s="51"/>
+      <c r="T7" s="52"/>
       <c r="U7" s="26"/>
       <c r="V7" s="26"/>
-      <c r="W7" s="48"/>
+      <c r="W7" s="49"/>
     </row>
     <row r="8" spans="2:23">
       <c r="B8" s="6"/>
@@ -1841,7 +1841,9 @@
       <c r="M8" s="27">
         <v>44156</v>
       </c>
-      <c r="N8" s="28"/>
+      <c r="N8" s="28" t="s">
+        <v>1</v>
+      </c>
       <c r="O8" s="29"/>
       <c r="P8" s="29"/>
       <c r="Q8" s="29"/>
@@ -1850,7 +1852,9 @@
       <c r="T8" s="39"/>
       <c r="U8" s="18"/>
       <c r="V8" s="18"/>
-      <c r="W8" s="52"/>
+      <c r="W8" s="53" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="2:23">
       <c r="B9" s="6"/>
@@ -1872,9 +1876,9 @@
       <c r="T9" s="18"/>
       <c r="U9" s="18"/>
       <c r="V9" s="18"/>
-      <c r="W9" s="48"/>
-    </row>
-    <row r="10" ht="15.75" spans="2:23">
+      <c r="W9" s="49"/>
+    </row>
+    <row r="10" spans="2:23">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1884,10 +1888,12 @@
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
-      <c r="M10" s="31" t="s">
-        <v>8</v>
-      </c>
-      <c r="N10" s="25"/>
+      <c r="M10" s="31">
+        <v>44159</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>1</v>
+      </c>
       <c r="O10" s="25"/>
       <c r="P10" s="25"/>
       <c r="Q10" s="25"/>
@@ -1896,9 +1902,11 @@
       <c r="T10" s="25"/>
       <c r="U10" s="25"/>
       <c r="V10" s="25"/>
-      <c r="W10" s="50"/>
-    </row>
-    <row r="11" ht="15.75" spans="2:23">
+      <c r="W10" s="51" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
@@ -1918,7 +1926,7 @@
       <c r="T11" s="18"/>
       <c r="U11" s="18"/>
       <c r="V11" s="18"/>
-      <c r="W11" s="48"/>
+      <c r="W11" s="49"/>
     </row>
     <row r="12" ht="15.75" spans="2:23">
       <c r="B12" s="6"/>
@@ -1931,7 +1939,7 @@
       <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="M12" s="35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N12" s="36"/>
       <c r="O12" s="36"/>
@@ -1942,7 +1950,7 @@
       <c r="T12" s="25"/>
       <c r="U12" s="25"/>
       <c r="V12" s="25"/>
-      <c r="W12" s="50"/>
+      <c r="W12" s="51"/>
     </row>
     <row r="13" ht="15.75" spans="2:23">
       <c r="B13" s="6"/>
@@ -1964,9 +1972,9 @@
       <c r="T13" s="26"/>
       <c r="U13" s="26"/>
       <c r="V13" s="26"/>
-      <c r="W13" s="48"/>
-    </row>
-    <row r="14" ht="15.75" spans="2:23">
+      <c r="W13" s="49"/>
+    </row>
+    <row r="14" spans="2:23">
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
@@ -1977,7 +1985,7 @@
       <c r="I14" s="6"/>
       <c r="J14" s="6"/>
       <c r="M14" s="30" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N14" s="18"/>
       <c r="O14" s="18"/>
@@ -1988,11 +1996,11 @@
       <c r="T14" s="18"/>
       <c r="U14" s="18"/>
       <c r="V14" s="18"/>
-      <c r="W14" s="50"/>
-    </row>
-    <row r="15" ht="15.75" spans="2:23">
+      <c r="W14" s="51"/>
+    </row>
+    <row r="15" spans="2:23">
       <c r="B15" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
@@ -2012,11 +2020,11 @@
       <c r="T15" s="26"/>
       <c r="U15" s="26"/>
       <c r="V15" s="26"/>
-      <c r="W15" s="48"/>
-    </row>
-    <row r="16" ht="15.75" spans="13:23">
+      <c r="W15" s="49"/>
+    </row>
+    <row r="16" spans="13:23">
       <c r="M16" s="35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N16" s="29"/>
       <c r="O16" s="39"/>
@@ -2027,7 +2035,7 @@
       <c r="T16" s="18"/>
       <c r="U16" s="18"/>
       <c r="V16" s="18"/>
-      <c r="W16" s="50"/>
+      <c r="W16" s="51"/>
     </row>
     <row r="17" ht="15.75" spans="13:23">
       <c r="M17" s="20"/>
@@ -2040,11 +2048,11 @@
       <c r="T17" s="26"/>
       <c r="U17" s="26"/>
       <c r="V17" s="26"/>
-      <c r="W17" s="48"/>
+      <c r="W17" s="49"/>
     </row>
     <row r="18" ht="15.75" spans="13:23">
       <c r="M18" s="30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
@@ -2055,7 +2063,7 @@
       <c r="T18" s="18"/>
       <c r="U18" s="18"/>
       <c r="V18" s="18"/>
-      <c r="W18" s="50"/>
+      <c r="W18" s="51"/>
     </row>
     <row r="19" ht="15.75" spans="13:23">
       <c r="M19" s="40"/>
@@ -2068,11 +2076,11 @@
       <c r="T19" s="22"/>
       <c r="U19" s="22"/>
       <c r="V19" s="22"/>
-      <c r="W19" s="48"/>
+      <c r="W19" s="49"/>
     </row>
     <row r="20" ht="15" spans="13:23">
       <c r="M20" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
@@ -2083,7 +2091,7 @@
       <c r="T20" s="18"/>
       <c r="U20" s="18"/>
       <c r="V20" s="18"/>
-      <c r="W20" s="50"/>
+      <c r="W20" s="51"/>
     </row>
     <row r="21" ht="15" spans="13:23">
       <c r="M21" s="30"/>
@@ -2096,11 +2104,11 @@
       <c r="T21" s="18"/>
       <c r="U21" s="18"/>
       <c r="V21" s="18"/>
-      <c r="W21" s="48"/>
+      <c r="W21" s="49"/>
     </row>
     <row r="22" ht="15.75" spans="13:23">
-      <c r="M22" s="31" t="s">
-        <v>15</v>
+      <c r="M22" s="41" t="s">
+        <v>14</v>
       </c>
       <c r="N22" s="25"/>
       <c r="O22" s="25"/>
@@ -2111,7 +2119,7 @@
       <c r="T22" s="25"/>
       <c r="U22" s="25"/>
       <c r="V22" s="25"/>
-      <c r="W22" s="50"/>
+      <c r="W22" s="51"/>
     </row>
     <row r="23" ht="15.75" spans="13:23">
       <c r="M23" s="40"/>
@@ -2124,11 +2132,11 @@
       <c r="T23" s="22"/>
       <c r="U23" s="22"/>
       <c r="V23" s="22"/>
-      <c r="W23" s="48"/>
+      <c r="W23" s="49"/>
     </row>
     <row r="24" ht="15" spans="13:23">
       <c r="M24" s="30" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N24" s="18"/>
       <c r="O24" s="18"/>
@@ -2139,7 +2147,7 @@
       <c r="T24" s="18"/>
       <c r="U24" s="18"/>
       <c r="V24" s="18"/>
-      <c r="W24" s="50"/>
+      <c r="W24" s="51"/>
     </row>
     <row r="25" ht="15" spans="13:23">
       <c r="M25" s="20"/>
@@ -2152,11 +2160,11 @@
       <c r="T25" s="26"/>
       <c r="U25" s="26"/>
       <c r="V25" s="26"/>
-      <c r="W25" s="48"/>
+      <c r="W25" s="49"/>
     </row>
     <row r="26" ht="15" spans="13:23">
       <c r="M26" s="30" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N26" s="18"/>
       <c r="O26" s="18"/>
@@ -2167,7 +2175,7 @@
       <c r="T26" s="18"/>
       <c r="U26" s="18"/>
       <c r="V26" s="18"/>
-      <c r="W26" s="50"/>
+      <c r="W26" s="51"/>
     </row>
     <row r="27" ht="15" spans="13:23">
       <c r="M27" s="20"/>
@@ -2180,11 +2188,11 @@
       <c r="T27" s="26"/>
       <c r="U27" s="26"/>
       <c r="V27" s="26"/>
-      <c r="W27" s="48"/>
+      <c r="W27" s="49"/>
     </row>
     <row r="28" ht="15.75" spans="13:23">
       <c r="M28" s="30" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
@@ -2195,11 +2203,11 @@
       <c r="T28" s="18"/>
       <c r="U28" s="18"/>
       <c r="V28" s="18"/>
-      <c r="W28" s="50"/>
+      <c r="W28" s="51"/>
     </row>
     <row r="29" ht="15.75" spans="13:23">
       <c r="M29" s="32"/>
-      <c r="N29" s="41"/>
+      <c r="N29" s="42"/>
       <c r="O29" s="34"/>
       <c r="P29" s="34"/>
       <c r="Q29" s="18"/>
@@ -2208,13 +2216,13 @@
       <c r="T29" s="18"/>
       <c r="U29" s="18"/>
       <c r="V29" s="18"/>
-      <c r="W29" s="48"/>
+      <c r="W29" s="49"/>
     </row>
     <row r="30" ht="15.75" spans="13:23">
       <c r="M30" s="35" t="s">
-        <v>19</v>
-      </c>
-      <c r="N30" s="42"/>
+        <v>18</v>
+      </c>
+      <c r="N30" s="43"/>
       <c r="O30" s="37"/>
       <c r="P30" s="37"/>
       <c r="Q30" s="25"/>
@@ -2223,7 +2231,7 @@
       <c r="T30" s="25"/>
       <c r="U30" s="25"/>
       <c r="V30" s="25"/>
-      <c r="W30" s="50"/>
+      <c r="W30" s="51"/>
     </row>
     <row r="31" ht="15.75" spans="13:23">
       <c r="M31" s="20"/>
@@ -2236,11 +2244,11 @@
       <c r="T31" s="26"/>
       <c r="U31" s="26"/>
       <c r="V31" s="26"/>
-      <c r="W31" s="48"/>
+      <c r="W31" s="49"/>
     </row>
     <row r="32" ht="15" spans="13:23">
       <c r="M32" s="30" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N32" s="18"/>
       <c r="O32" s="18"/>
@@ -2251,10 +2259,10 @@
       <c r="T32" s="18"/>
       <c r="U32" s="18"/>
       <c r="V32" s="18"/>
-      <c r="W32" s="50"/>
+      <c r="W32" s="51"/>
     </row>
     <row r="33" ht="15" spans="13:23">
-      <c r="M33" s="43"/>
+      <c r="M33" s="44"/>
       <c r="N33" s="29"/>
       <c r="O33" s="29"/>
       <c r="P33" s="29"/>
@@ -2264,7 +2272,7 @@
       <c r="T33" s="29"/>
       <c r="U33" s="29"/>
       <c r="V33" s="29"/>
-      <c r="W33" s="48"/>
+      <c r="W33" s="49"/>
     </row>
     <row r="34" ht="15"/>
   </sheetData>
